--- a/prep_and_checklists/Vogue  /PREPLIST_Vogue  _07-10-2025_0.xlsx
+++ b/prep_and_checklists/Vogue  /PREPLIST_Vogue  _07-10-2025_0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidcuvin/purveyor_project/prep_and_checklists/Vogue  /"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44421083-7F79-4649-9235-39DCC32950A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{623F79D9-64E9-7647-B406-9DE842E8850B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="1380" windowWidth="30240" windowHeight="17840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="860" windowWidth="30240" windowHeight="17840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="prep_sheet" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="192">
   <si>
     <t xml:space="preserve">Vogue   150   Guests 5:00 PM - 7:30 PM   Wednesday, July 16, 2025  </t>
   </si>
@@ -294,15 +294,9 @@
     <t>Purveyor</t>
   </si>
   <si>
-    <t>Choice beef tenderloin psmo</t>
-  </si>
-  <si>
     <t>Pat la frieda</t>
   </si>
   <si>
-    <t>Sunchokes</t>
-  </si>
-  <si>
     <t>Baldor speciality foods, inc.</t>
   </si>
   <si>
@@ -321,12 +315,6 @@
     <t>Eli's bread inc</t>
   </si>
   <si>
-    <t>Yuzu kosho</t>
-  </si>
-  <si>
-    <t>Tamarind paste</t>
-  </si>
-  <si>
     <t>Yuzu juice</t>
   </si>
   <si>
@@ -334,9 +322,6 @@
   </si>
   <si>
     <t>Dairyland</t>
-  </si>
-  <si>
-    <t>Mirin</t>
   </si>
   <si>
     <t>Rice wine vinegar</t>
@@ -1105,6 +1090,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1141,11 +1129,11 @@
     </row>
     <row r="4" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B4" s="8"/>
       <c r="D4" s="9" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E4" s="8"/>
     </row>
@@ -1168,13 +1156,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -1182,13 +1170,13 @@
         <v>7</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>44</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -1196,13 +1184,13 @@
         <v>8</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>45</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -1210,7 +1198,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="19" x14ac:dyDescent="0.2">
@@ -1218,7 +1206,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>46</v>
@@ -1232,13 +1220,13 @@
         <v>11</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>47</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -1246,13 +1234,13 @@
         <v>12</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>48</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -1260,7 +1248,7 @@
         <v>49</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="19" x14ac:dyDescent="0.2">
@@ -1274,7 +1262,7 @@
         <v>50</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -1282,13 +1270,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -1296,13 +1284,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>52</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -1310,13 +1298,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>53</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -1324,7 +1312,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="19" x14ac:dyDescent="0.2">
@@ -1332,7 +1320,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>54</v>
@@ -1346,7 +1334,7 @@
         <v>55</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="19" x14ac:dyDescent="0.2">
@@ -1360,7 +1348,7 @@
         <v>56</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -1368,13 +1356,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -1382,13 +1370,13 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>57</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -1396,7 +1384,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="19" x14ac:dyDescent="0.2">
@@ -1404,7 +1392,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>58</v>
@@ -1418,13 +1406,13 @@
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>59</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -1432,13 +1420,13 @@
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>60</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -1446,7 +1434,7 @@
         <v>61</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="19" x14ac:dyDescent="0.2">
@@ -1460,7 +1448,7 @@
         <v>62</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -1468,7 +1456,7 @@
         <v>27</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="19" x14ac:dyDescent="0.2">
@@ -1476,7 +1464,7 @@
         <v>28</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>63</v>
@@ -1490,13 +1478,13 @@
         <v>29</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>64</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -1504,13 +1492,13 @@
         <v>30</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -1518,7 +1506,7 @@
         <v>65</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="19" x14ac:dyDescent="0.2">
@@ -1532,7 +1520,7 @@
         <v>66</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -1540,13 +1528,13 @@
         <v>32</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>67</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -1562,7 +1550,7 @@
         <v>23</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>68</v>
@@ -1582,7 +1570,7 @@
         <v>69</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -1590,13 +1578,13 @@
         <v>35</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>70</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -1604,7 +1592,7 @@
         <v>71</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="19" x14ac:dyDescent="0.2">
@@ -1620,7 +1608,7 @@
         <v>37</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>72</v>
@@ -1634,13 +1622,13 @@
         <v>38</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>73</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -1648,13 +1636,13 @@
         <v>39</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>74</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -1662,13 +1650,13 @@
         <v>40</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>75</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -1676,7 +1664,7 @@
         <v>41</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="19" x14ac:dyDescent="0.2">
@@ -1692,7 +1680,7 @@
         <v>77</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="50" spans="4:5" ht="16" x14ac:dyDescent="0.2">
@@ -1700,7 +1688,7 @@
         <v>78</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="51" spans="4:5" ht="16" x14ac:dyDescent="0.2">
@@ -1708,7 +1696,7 @@
         <v>79</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="52" spans="4:5" ht="16" x14ac:dyDescent="0.2">
@@ -1716,7 +1704,7 @@
         <v>80</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="53" spans="4:5" ht="16" x14ac:dyDescent="0.2">
@@ -1724,7 +1712,7 @@
         <v>24</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="54" spans="4:5" ht="17" x14ac:dyDescent="0.2">
@@ -1732,7 +1720,7 @@
         <v>81</v>
       </c>
       <c r="E54" s="13" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -1743,15 +1731,17 @@
     <mergeCell ref="D4:E4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup scale="51" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C70"/>
+  <dimension ref="A1:C65"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1783,7 +1773,7 @@
     </row>
     <row r="4" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5" t="s">
@@ -1792,74 +1782,74 @@
     </row>
     <row r="5" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="19" x14ac:dyDescent="0.2">
@@ -1868,7 +1858,7 @@
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="19" x14ac:dyDescent="0.2">
@@ -1877,7 +1867,7 @@
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="19" x14ac:dyDescent="0.2">
@@ -1886,7 +1876,7 @@
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="19" x14ac:dyDescent="0.2">
@@ -1895,7 +1885,7 @@
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="19" x14ac:dyDescent="0.2">
@@ -1904,106 +1894,106 @@
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="5" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="5" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="5" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="5" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B27" s="5"/>
       <c r="C27" s="5" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B28" s="5"/>
       <c r="C28" s="5" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="19" x14ac:dyDescent="0.2">
@@ -2012,7 +2002,7 @@
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="19" x14ac:dyDescent="0.2">
@@ -2021,7 +2011,7 @@
       </c>
       <c r="B30" s="5"/>
       <c r="C30" s="5" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="19" x14ac:dyDescent="0.2">
@@ -2030,7 +2020,7 @@
       </c>
       <c r="B31" s="5"/>
       <c r="C31" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="19" x14ac:dyDescent="0.2">
@@ -2039,7 +2029,7 @@
       </c>
       <c r="B32" s="5"/>
       <c r="C32" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="19" x14ac:dyDescent="0.2">
@@ -2048,7 +2038,7 @@
       </c>
       <c r="B33" s="5"/>
       <c r="C33" s="5" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="19" x14ac:dyDescent="0.2">
@@ -2057,7 +2047,7 @@
       </c>
       <c r="B34" s="5"/>
       <c r="C34" s="5" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="19" x14ac:dyDescent="0.2">
@@ -2066,7 +2056,7 @@
       </c>
       <c r="B35" s="5"/>
       <c r="C35" s="5" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="19" x14ac:dyDescent="0.2">
@@ -2075,61 +2065,61 @@
       </c>
       <c r="B36" s="5"/>
       <c r="C36" s="5" t="s">
-        <v>89</v>
+        <v>127</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B37" s="5"/>
       <c r="C37" s="5" t="s">
-        <v>89</v>
+        <v>129</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B38" s="5"/>
       <c r="C38" s="5" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B39" s="5"/>
       <c r="C39" s="5" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B40" s="5"/>
       <c r="C40" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B41" s="5"/>
       <c r="C41" s="5" t="s">
-        <v>132</v>
+        <v>87</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B42" s="5"/>
       <c r="C42" s="5" t="s">
-        <v>134</v>
+        <v>87</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="19" x14ac:dyDescent="0.2">
@@ -2138,7 +2128,7 @@
       </c>
       <c r="B43" s="5"/>
       <c r="C43" s="5" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="19" x14ac:dyDescent="0.2">
@@ -2147,7 +2137,7 @@
       </c>
       <c r="B44" s="5"/>
       <c r="C44" s="5" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="19" x14ac:dyDescent="0.2">
@@ -2156,7 +2146,7 @@
       </c>
       <c r="B45" s="5"/>
       <c r="C45" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="19" x14ac:dyDescent="0.2">
@@ -2165,7 +2155,7 @@
       </c>
       <c r="B46" s="5"/>
       <c r="C46" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="19" x14ac:dyDescent="0.2">
@@ -2174,7 +2164,7 @@
       </c>
       <c r="B47" s="5"/>
       <c r="C47" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="19" x14ac:dyDescent="0.2">
@@ -2183,7 +2173,7 @@
       </c>
       <c r="B48" s="5"/>
       <c r="C48" s="5" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="19" x14ac:dyDescent="0.2">
@@ -2192,7 +2182,7 @@
       </c>
       <c r="B49" s="5"/>
       <c r="C49" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="19" x14ac:dyDescent="0.2">
@@ -2201,7 +2191,7 @@
       </c>
       <c r="B50" s="5"/>
       <c r="C50" s="5" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="19" x14ac:dyDescent="0.2">
@@ -2210,52 +2200,52 @@
       </c>
       <c r="B51" s="5"/>
       <c r="C51" s="5" t="s">
-        <v>89</v>
+        <v>144</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B52" s="5"/>
       <c r="C52" s="5" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B53" s="5"/>
       <c r="C53" s="5" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B54" s="5"/>
       <c r="C54" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B55" s="5"/>
       <c r="C55" s="5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B56" s="5"/>
       <c r="C56" s="5" t="s">
-        <v>149</v>
+        <v>95</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="19" x14ac:dyDescent="0.2">
@@ -2264,7 +2254,7 @@
       </c>
       <c r="B57" s="5"/>
       <c r="C57" s="5" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="19" x14ac:dyDescent="0.2">
@@ -2273,7 +2263,7 @@
       </c>
       <c r="B58" s="5"/>
       <c r="C58" s="5" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="19" x14ac:dyDescent="0.2">
@@ -2282,7 +2272,7 @@
       </c>
       <c r="B59" s="5"/>
       <c r="C59" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="19" x14ac:dyDescent="0.2">
@@ -2291,7 +2281,7 @@
       </c>
       <c r="B60" s="5"/>
       <c r="C60" s="5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="19" x14ac:dyDescent="0.2">
@@ -2300,7 +2290,7 @@
       </c>
       <c r="B61" s="5"/>
       <c r="C61" s="5" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="19" x14ac:dyDescent="0.2">
@@ -2309,7 +2299,7 @@
       </c>
       <c r="B62" s="5"/>
       <c r="C62" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="19" x14ac:dyDescent="0.2">
@@ -2318,7 +2308,7 @@
       </c>
       <c r="B63" s="5"/>
       <c r="C63" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="19" x14ac:dyDescent="0.2">
@@ -2327,7 +2317,7 @@
       </c>
       <c r="B64" s="5"/>
       <c r="C64" s="5" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="19" x14ac:dyDescent="0.2">
@@ -2336,55 +2326,11 @@
       </c>
       <c r="B65" s="5"/>
       <c r="C65" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A66" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="B66" s="5"/>
-      <c r="C66" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A67" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="B67" s="5"/>
-      <c r="C67" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A68" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="B68" s="5"/>
-      <c r="C68" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A69" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="B69" s="5"/>
-      <c r="C69" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A70" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="B70" s="5"/>
-      <c r="C70" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>